--- a/TrueAug_SAGE__output.xlsx
+++ b/TrueAug_SAGE__output.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A55"/>
+  <dimension ref="A1:A167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,376 +871,1160 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:53, time:9.496595, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:165, time:7.166901, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:52, time:6.358822, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:164, time:7.407168, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:51, time:10.349181, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:163, time:6.435201, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:50, time:6.816233, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:162, time:8.033247, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:49, time:9.152039, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:161, time:5.790355, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:48, time:6.460934, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:160, time:9.585418, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:47, time:11.181398, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:159, time:5.891979, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:46, time:6.670065, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:158, time:8.719912, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:45, time:9.573827, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:157, time:6.227345, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:44, time:8.571899, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:156, time:7.609802, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:43, time:10.597662, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:155, time:7.403889, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:42, time:7.012643, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:154, time:7.676971, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:41, time:10.000583, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:153, time:7.968482, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:40, time:5.948134, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:152, time:6.733290, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:39, time:8.339039, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+          <t>Epoch:151, time:7.794544, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:38, time:7.614152, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+          <t>Epoch:150, time:6.143158, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:37, time:8.931748, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+          <t>Epoch:149, time:7.897659, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:36, time:9.155689, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+          <t>Epoch:148, time:6.314307, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:35, time:10.023261, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+          <t>Epoch:147, time:8.112632, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:34, time:10.088133, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+          <t>Epoch:146, time:7.783282, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:33, time:8.137382, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+          <t>Epoch:145, time:6.677802, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:32, time:7.337623, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+          <t>Epoch:144, time:7.272059, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:31, time:7.064950, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+          <t>Epoch:143, time:6.671824, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:30, time:7.534356, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+          <t>Epoch:142, time:8.057835, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:29, time:7.577209, test_Acc: 30.06, test_bacc: 33.22, test_f1: 22.57</t>
+          <t>Epoch:141, time:6.496377, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:28, time:7.783170, test_Acc: 30.06, test_bacc: 33.22, test_f1: 22.57</t>
+          <t>Epoch:140, time:8.683271, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:27, time:6.163265, test_Acc: 30.70, test_bacc: 33.88, test_f1: 23.00</t>
+          <t>Epoch:139, time:6.100300, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:26, time:9.512013, test_Acc: 28.62, test_bacc: 31.70, test_f1: 20.85</t>
+          <t>Epoch:138, time:9.037202, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:25, time:6.266151, test_Acc: 29.85, test_bacc: 32.75, test_f1: 21.15</t>
+          <t>Epoch:137, time:6.101845, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:24, time:9.412719, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+          <t>Epoch:136, time:9.278431, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:23, time:6.323023, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+          <t>Epoch:135, time:6.445513, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:22, time:8.559226, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+          <t>Epoch:134, time:9.576329, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:21, time:6.080819, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+          <t>Epoch:133, time:6.180766, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:20, time:8.843371, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+          <t>Epoch:132, time:6.631290, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:19, time:7.051358, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+          <t>Epoch:131, time:7.292522, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:18, time:6.926372, test_Acc: 27.39, test_bacc: 30.15, test_f1: 18.28</t>
+          <t>Epoch:130, time:7.041668, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:17, time:7.811061, test_Acc: 26.79, test_bacc: 29.56, test_f1: 17.30</t>
+          <t>Epoch:129, time:7.526911, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:16, time:6.023082, test_Acc: 26.79, test_bacc: 29.56, test_f1: 17.30</t>
+          <t>Epoch:128, time:6.339298, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:15, time:9.235159, test_Acc: 26.79, test_bacc: 29.56, test_f1: 17.30</t>
+          <t>Epoch:127, time:8.000159, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:14, time:6.412798, test_Acc: 26.79, test_bacc: 29.56, test_f1: 17.30</t>
+          <t>Epoch:126, time:7.389728, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:13, time:7.936440, test_Acc: 24.71, test_bacc: 27.68, test_f1: 14.95</t>
+          <t>Epoch:125, time:7.928691, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:12, time:6.572193, test_Acc: 24.33, test_bacc: 27.32, test_f1: 14.29</t>
+          <t>Epoch:124, time:8.373666, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:11, time:8.041691, test_Acc: 24.33, test_bacc: 27.32, test_f1: 14.29</t>
+          <t>Epoch:123, time:7.039936, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:10, time:7.180885, test_Acc: 22.85, test_bacc: 25.92, test_f1: 12.79</t>
+          <t>Epoch:122, time:10.191537, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:9, time:7.905002, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+          <t>Epoch:121, time:6.195103, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:8, time:8.343450, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+          <t>Epoch:120, time:9.965900, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:7, time:7.984163, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+          <t>Epoch:119, time:7.764676, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:6, time:8.163161, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+          <t>Epoch:118, time:10.442312, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:5, time:6.746805, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+          <t>Epoch:117, time:5.910110, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:4, time:9.642060, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+          <t>Epoch:116, time:8.426711, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:3, time:8.839344, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+          <t>Epoch:115, time:8.282651, test_Acc: 32.27, test_bacc: 36.82, test_f1: 29.01</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:2, time:7.582821, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+          <t>Epoch:114, time:9.873367, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:1, time:8.177636, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+          <t>Epoch:113, time:8.365005, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
+        <is>
+          <t>Epoch:112, time:8.548617, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Epoch:111, time:8.277051, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Epoch:110, time:8.931838, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Epoch:109, time:9.072328, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Epoch:108, time:7.599528, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Epoch:107, time:9.563143, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Epoch:106, time:7.593549, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Epoch:105, time:8.932091, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epoch:104, time:5.962572, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Epoch:103, time:10.462366, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Epoch:102, time:6.060690, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Epoch:101, time:10.190911, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Epoch:100, time:7.335594, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Epoch:99, time:8.671115, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Epoch:98, time:6.117401, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Epoch:97, time:9.116406, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Epoch:96, time:7.716800, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Epoch:95, time:7.925347, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Epoch:94, time:8.784256, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epoch:93, time:8.275113, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Epoch:92, time:8.024845, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Epoch:91, time:9.487592, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Epoch:90, time:8.225224, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Epoch:89, time:8.741041, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epoch:88, time:8.972847, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Epoch:87, time:9.420368, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epoch:86, time:7.771121, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Epoch:85, time:8.360947, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Epoch:84, time:7.979706, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Epoch:83, time:6.051340, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Epoch:82, time:11.255894, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Epoch:81, time:6.494601, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Epoch:80, time:10.838615, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Epoch:79, time:6.601218, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Epoch:78, time:10.117213, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Epoch:77, time:6.924204, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Epoch:76, time:10.425054, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Epoch:75, time:5.874853, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Epoch:74, time:10.261244, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Epoch:73, time:6.462985, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Epoch:72, time:9.163391, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Epoch:71, time:7.554219, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epoch:70, time:8.965574, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Epoch:69, time:8.031840, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Epoch:68, time:9.299956, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epoch:67, time:8.603464, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Epoch:66, time:8.202581, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Epoch:65, time:8.776616, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Epoch:64, time:7.344964, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epoch:63, time:9.204245, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Epoch:62, time:9.387611, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Epoch:61, time:7.784365, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Epoch:60, time:8.499712, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Epoch:59, time:9.001299, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Epoch:58, time:8.058610, test_Acc: 33.67, test_bacc: 37.51, test_f1: 27.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Epoch:57, time:8.224724, test_Acc: 32.23, test_bacc: 35.97, test_f1: 26.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Epoch:56, time:6.971123, test_Acc: 32.23, test_bacc: 35.97, test_f1: 26.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Epoch:55, time:10.020698, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Epoch:54, time:9.164942, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Epoch:53, time:9.496595, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epoch:52, time:6.358822, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:51, time:10.349181, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:6.816233, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:9.152039, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:6.460934, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:11.181398, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:6.670065, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:9.573827, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:8.571899, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:10.597662, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:7.012643, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:10.000583, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:5.948134, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:8.339039, test_Acc: 33.08, test_bacc: 36.44, test_f1: 25.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:7.614152, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:8.931748, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:9.155689, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:10.023261, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:10.088133, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:8.137382, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:7.337623, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:7.064950, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:7.534356, test_Acc: 32.74, test_bacc: 35.94, test_f1: 24.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:7.577209, test_Acc: 30.06, test_bacc: 33.22, test_f1: 22.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:7.783170, test_Acc: 30.06, test_bacc: 33.22, test_f1: 22.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:6.163265, test_Acc: 30.70, test_bacc: 33.88, test_f1: 23.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:9.512013, test_Acc: 28.62, test_bacc: 31.70, test_f1: 20.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:6.266151, test_Acc: 29.85, test_bacc: 32.75, test_f1: 21.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:9.412719, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:6.323023, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:8.559226, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:6.080819, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:8.843371, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:7.051358, test_Acc: 28.75, test_bacc: 31.37, test_f1: 19.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:6.926372, test_Acc: 27.39, test_bacc: 30.15, test_f1: 18.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:7.811061, test_Acc: 26.79, test_bacc: 29.56, test_f1: 17.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:6.023082, test_Acc: 26.79, test_bacc: 29.56, test_f1: 17.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:9.235159, test_Acc: 26.79, test_bacc: 29.56, test_f1: 17.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:6.412798, test_Acc: 26.79, test_bacc: 29.56, test_f1: 17.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:7.936440, test_Acc: 24.71, test_bacc: 27.68, test_f1: 14.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:6.572193, test_Acc: 24.33, test_bacc: 27.32, test_f1: 14.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:8.041691, test_Acc: 24.33, test_bacc: 27.32, test_f1: 14.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:7.180885, test_Acc: 22.85, test_bacc: 25.92, test_f1: 12.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:7.905002, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:8.343450, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:7.984163, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:8.163161, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:6.746805, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:9.642060, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:8.839344, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:7.582821, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:8.177636, test_Acc: 19.75, test_bacc: 23.00, test_f1: 11.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
         <is>
           <t>Epoch:0, time:7.936142, test_Acc: 17.41, test_bacc: 22.67, test_f1: 12.77</t>
         </is>
